--- a/generation_time_Cp_removal/181026_generation_time_without_Cp.xlsx
+++ b/generation_time_Cp_removal/181026_generation_time_without_Cp.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta_koganezawa/Documents/Wakamoto_lab/paper_data/raw_data/cat_deletion/generation_time/after_Cp_removal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta_koganezawa/Documents/Wakamoto_lab/paper_data/Phenotypic_Buffering/generation_time_Cp_removal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901879BF-1778-DF41-B4B1-D606CFF2E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869128F-AD27-8E45-A0C1-D4B25C381389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="460" windowWidth="17240" windowHeight="18540" activeTab="1" xr2:uid="{C5304532-994D-5741-829C-1C316CAD9BFD}"/>
+    <workbookView xWindow="16360" yWindow="460" windowWidth="17240" windowHeight="18540" activeTab="2" xr2:uid="{C5304532-994D-5741-829C-1C316CAD9BFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="dividing_cell" sheetId="3" r:id="rId1"/>
-    <sheet name="non-dividing_cell" sheetId="2" r:id="rId2"/>
-    <sheet name="resistant_cell" sheetId="1" r:id="rId3"/>
+    <sheet name="growth-restored cell lineage" sheetId="3" r:id="rId1"/>
+    <sheet name="growth-halted cell lineage" sheetId="2" r:id="rId2"/>
+    <sheet name="non-deleted cell lineage" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2101872-DD0C-224B-A05D-3C5A21BC4594}">
-  <dimension ref="A1:K455"/>
+  <dimension ref="A1:E455"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E447" sqref="E447"/>
+    <sheetView topLeftCell="A414" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F446" sqref="F446:K455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6333,7 +6333,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:5">
       <c r="A433">
         <v>39</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:5">
       <c r="C434">
         <v>2296</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:5">
       <c r="C435">
         <v>2339</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:5">
       <c r="C436">
         <v>2375</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:5">
       <c r="C437">
         <v>2397</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:5">
       <c r="C438">
         <v>2422</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:5">
       <c r="C439">
         <v>2474</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:5">
       <c r="C440">
         <v>2500</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:5">
       <c r="C441">
         <v>2532</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:5">
       <c r="C442">
         <v>2572</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:5">
       <c r="C443">
         <v>2624</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -6489,28 +6489,8 @@
         <f t="array" ref="E446">MEDIAN(IF(D446=D$2:D$443,E$2:E$443))</f>
         <v>69</v>
       </c>
-      <c r="F446" cm="1">
-        <f t="array" ref="F446">QUARTILE(IF(D446=D$2:D$443,E$2:E$443),1)</f>
-        <v>47.5</v>
-      </c>
-      <c r="G446" cm="1">
-        <f t="array" ref="G446">QUARTILE(IF(D446=D$2:D$443,E$2:E$443),3)</f>
-        <v>105.5</v>
-      </c>
-      <c r="H446" cm="1">
-        <f t="array" ref="H446">AVERAGE(IF(D446=D$2:D$443,E$2:E$443))</f>
-        <v>89.904761904761898</v>
-      </c>
-      <c r="I446">
-        <f>COUNTIF(D$2:D$443,D446)</f>
-        <v>42</v>
-      </c>
-      <c r="K446">
-        <f>I451/I446</f>
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11">
+    </row>
+    <row r="447" spans="1:5">
       <c r="D447">
         <v>2</v>
       </c>
@@ -6518,24 +6498,8 @@
         <f t="array" ref="E447">MEDIAN(IF(D447=D$2:D$443,E$2:E$443))</f>
         <v>68</v>
       </c>
-      <c r="F447" cm="1">
-        <f t="array" ref="F447">QUARTILE(IF(D447=D$2:D$443,E$2:E$443),1)</f>
-        <v>48</v>
-      </c>
-      <c r="G447" cm="1">
-        <f t="array" ref="G447">QUARTILE(IF(D447=D$2:D$443,E$2:E$443),3)</f>
-        <v>112.5</v>
-      </c>
-      <c r="H447" cm="1">
-        <f t="array" ref="H447">AVERAGE(IF(D447=D$2:D$443,E$2:E$443))</f>
-        <v>85</v>
-      </c>
-      <c r="I447">
-        <f t="shared" ref="I447:I455" si="14">COUNTIF(D$2:D$443,D447)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11">
+    </row>
+    <row r="448" spans="1:5">
       <c r="D448">
         <v>3</v>
       </c>
@@ -6543,24 +6507,8 @@
         <f t="array" ref="E448">MEDIAN(IF(D448=D$2:D$443,E$2:E$443))</f>
         <v>69</v>
       </c>
-      <c r="F448" cm="1">
-        <f t="array" ref="F448">QUARTILE(IF(D448=D$2:D$443,E$2:E$443),1)</f>
-        <v>51</v>
-      </c>
-      <c r="G448" cm="1">
-        <f t="array" ref="G448">QUARTILE(IF(D448=D$2:D$443,E$2:E$443),3)</f>
-        <v>83.5</v>
-      </c>
-      <c r="H448" cm="1">
-        <f t="array" ref="H448">AVERAGE(IF(D448=D$2:D$443,E$2:E$443))</f>
-        <v>78.047619047619051</v>
-      </c>
-      <c r="I448">
-        <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="449" spans="4:9">
+    </row>
+    <row r="449" spans="4:5">
       <c r="D449">
         <v>4</v>
       </c>
@@ -6568,24 +6516,8 @@
         <f t="array" ref="E449">MEDIAN(IF(D449=D$2:D$443,E$2:E$443))</f>
         <v>68</v>
       </c>
-      <c r="F449" cm="1">
-        <f t="array" ref="F449">QUARTILE(IF(D449=D$2:D$443,E$2:E$443),1)</f>
-        <v>56</v>
-      </c>
-      <c r="G449" cm="1">
-        <f t="array" ref="G449">QUARTILE(IF(D449=D$2:D$443,E$2:E$443),3)</f>
-        <v>88</v>
-      </c>
-      <c r="H449" cm="1">
-        <f t="array" ref="H449">AVERAGE(IF(D449=D$2:D$443,E$2:E$443))</f>
-        <v>80.292682926829272</v>
-      </c>
-      <c r="I449">
-        <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="450" spans="4:9">
+    </row>
+    <row r="450" spans="4:5">
       <c r="D450">
         <v>5</v>
       </c>
@@ -6593,24 +6525,8 @@
         <f t="array" ref="E450">MEDIAN(IF(D450=D$2:D$443,E$2:E$443))</f>
         <v>66</v>
       </c>
-      <c r="F450" cm="1">
-        <f t="array" ref="F450">QUARTILE(IF(D450=D$2:D$443,E$2:E$443),1)</f>
-        <v>56</v>
-      </c>
-      <c r="G450" cm="1">
-        <f t="array" ref="G450">QUARTILE(IF(D450=D$2:D$443,E$2:E$443),3)</f>
-        <v>81</v>
-      </c>
-      <c r="H450" cm="1">
-        <f t="array" ref="H450">AVERAGE(IF(D450=D$2:D$443,E$2:E$443))</f>
-        <v>78.307692307692307</v>
-      </c>
-      <c r="I450">
-        <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="451" spans="4:9">
+    </row>
+    <row r="451" spans="4:5">
       <c r="D451">
         <v>6</v>
       </c>
@@ -6618,24 +6534,8 @@
         <f t="array" ref="E451">MEDIAN(IF(D451=D$2:D$443,E$2:E$443))</f>
         <v>80</v>
       </c>
-      <c r="F451" cm="1">
-        <f t="array" ref="F451">QUARTILE(IF(D451=D$2:D$443,E$2:E$443),1)</f>
-        <v>63</v>
-      </c>
-      <c r="G451" cm="1">
-        <f t="array" ref="G451">QUARTILE(IF(D451=D$2:D$443,E$2:E$443),3)</f>
-        <v>95</v>
-      </c>
-      <c r="H451" cm="1">
-        <f t="array" ref="H451">AVERAGE(IF(D451=D$2:D$443,E$2:E$443))</f>
-        <v>85.333333333333329</v>
-      </c>
-      <c r="I451">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="452" spans="4:9">
+    </row>
+    <row r="452" spans="4:5">
       <c r="D452">
         <v>7</v>
       </c>
@@ -6643,24 +6543,8 @@
         <f t="array" ref="E452">MEDIAN(IF(D452=D$2:D$443,E$2:E$443))</f>
         <v>72</v>
       </c>
-      <c r="F452" cm="1">
-        <f t="array" ref="F452">QUARTILE(IF(D452=D$2:D$443,E$2:E$443),1)</f>
-        <v>62</v>
-      </c>
-      <c r="G452" cm="1">
-        <f t="array" ref="G452">QUARTILE(IF(D452=D$2:D$443,E$2:E$443),3)</f>
-        <v>105</v>
-      </c>
-      <c r="H452" cm="1">
-        <f t="array" ref="H452">AVERAGE(IF(D452=D$2:D$443,E$2:E$443))</f>
-        <v>83.84615384615384</v>
-      </c>
-      <c r="I452">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="453" spans="4:9">
+    </row>
+    <row r="453" spans="4:5">
       <c r="D453">
         <v>8</v>
       </c>
@@ -6668,24 +6552,8 @@
         <f t="array" ref="E453">MEDIAN(IF(D453=D$2:D$443,E$2:E$443))</f>
         <v>74</v>
       </c>
-      <c r="F453" cm="1">
-        <f t="array" ref="F453">QUARTILE(IF(D453=D$2:D$443,E$2:E$443),1)</f>
-        <v>64</v>
-      </c>
-      <c r="G453" cm="1">
-        <f t="array" ref="G453">QUARTILE(IF(D453=D$2:D$443,E$2:E$443),3)</f>
-        <v>94</v>
-      </c>
-      <c r="H453" cm="1">
-        <f t="array" ref="H453">AVERAGE(IF(D453=D$2:D$443,E$2:E$443))</f>
-        <v>82</v>
-      </c>
-      <c r="I453">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="454" spans="4:9">
+    </row>
+    <row r="454" spans="4:5">
       <c r="D454">
         <v>9</v>
       </c>
@@ -6693,46 +6561,14 @@
         <f t="array" ref="E454">MEDIAN(IF(D454=D$2:D$443,E$2:E$443))</f>
         <v>80</v>
       </c>
-      <c r="F454" cm="1">
-        <f t="array" ref="F454">QUARTILE(IF(D454=D$2:D$443,E$2:E$443),1)</f>
-        <v>70</v>
-      </c>
-      <c r="G454" cm="1">
-        <f t="array" ref="G454">QUARTILE(IF(D454=D$2:D$443,E$2:E$443),3)</f>
-        <v>107</v>
-      </c>
-      <c r="H454" cm="1">
-        <f t="array" ref="H454">AVERAGE(IF(D454=D$2:D$443,E$2:E$443))</f>
-        <v>96.051282051282058</v>
-      </c>
-      <c r="I454">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="455" spans="4:9">
+    </row>
+    <row r="455" spans="4:5">
       <c r="D455">
         <v>10</v>
       </c>
       <c r="E455" cm="1">
         <f t="array" ref="E455">MEDIAN(IF(D455=D$2:D$443,E$2:E$443))</f>
         <v>87</v>
-      </c>
-      <c r="F455" cm="1">
-        <f t="array" ref="F455">QUARTILE(IF(D455=D$2:D$443,E$2:E$443),1)</f>
-        <v>72</v>
-      </c>
-      <c r="G455" cm="1">
-        <f t="array" ref="G455">QUARTILE(IF(D455=D$2:D$443,E$2:E$443),3)</f>
-        <v>111</v>
-      </c>
-      <c r="H455" cm="1">
-        <f t="array" ref="H455">AVERAGE(IF(D455=D$2:D$443,E$2:E$443))</f>
-        <v>100.78947368421052</v>
-      </c>
-      <c r="I455">
-        <f t="shared" si="14"/>
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6743,10 +6579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BC650E-2031-1A4E-9E73-F5F6EC61F078}">
-  <dimension ref="A1:K754"/>
+  <dimension ref="A1:E754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B720" sqref="B720"/>
+    <sheetView topLeftCell="A726" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F745" sqref="F745:K754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16788,7 +16624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" spans="1:5">
       <c r="C737">
         <v>2394</v>
       </c>
@@ -16801,7 +16637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" spans="1:5">
       <c r="C738">
         <v>2413</v>
       </c>
@@ -16814,7 +16650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="739" spans="1:11">
+    <row r="739" spans="1:5">
       <c r="C739">
         <v>2450</v>
       </c>
@@ -16827,7 +16663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="740" spans="1:11">
+    <row r="740" spans="1:5">
       <c r="C740">
         <v>2473</v>
       </c>
@@ -16840,7 +16676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="741" spans="1:11">
+    <row r="741" spans="1:5">
       <c r="C741">
         <v>2500</v>
       </c>
@@ -16853,7 +16689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="742" spans="1:11">
+    <row r="742" spans="1:5">
       <c r="C742">
         <v>2529</v>
       </c>
@@ -16862,7 +16698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="745" spans="1:11">
+    <row r="745" spans="1:5">
       <c r="A745" t="s">
         <v>5</v>
       </c>
@@ -16873,24 +16709,8 @@
         <f t="array" ref="E745">MEDIAN(IF(D745=D$2:D$742,E$2:E$742))</f>
         <v>58</v>
       </c>
-      <c r="F745" cm="1">
-        <f t="array" ref="F745">QUARTILE(IF(D745=D$2:D$742,E$2:E$742),1)</f>
-        <v>36</v>
-      </c>
-      <c r="G745" cm="1">
-        <f t="array" ref="G745">QUARTILE(IF(D745=D$2:D$742,E$2:E$742),3)</f>
-        <v>82.5</v>
-      </c>
-      <c r="H745" cm="1">
-        <f t="array" ref="H745">AVERAGE(IF(D745=D$2:D$742,E$2:E$742))</f>
-        <v>64</v>
-      </c>
-      <c r="I745">
-        <f>COUNTIF(D$2:D$742,D745)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="746" spans="1:11">
+    </row>
+    <row r="746" spans="1:5">
       <c r="D746">
         <v>2</v>
       </c>
@@ -16898,24 +16718,8 @@
         <f t="array" ref="E746">MEDIAN(IF(D746=D$2:D$742,E$2:E$742))</f>
         <v>62</v>
       </c>
-      <c r="F746" cm="1">
-        <f t="array" ref="F746">QUARTILE(IF(D746=D$2:D$742,E$2:E$742),1)</f>
-        <v>40</v>
-      </c>
-      <c r="G746" cm="1">
-        <f t="array" ref="G746">QUARTILE(IF(D746=D$2:D$742,E$2:E$742),3)</f>
-        <v>115</v>
-      </c>
-      <c r="H746" cm="1">
-        <f t="array" ref="H746">AVERAGE(IF(D746=D$2:D$742,E$2:E$742))</f>
-        <v>81.887323943661968</v>
-      </c>
-      <c r="I746">
-        <f t="shared" ref="I746:I754" si="24">COUNTIF(D$2:D$742,D746)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="747" spans="1:11">
+    </row>
+    <row r="747" spans="1:5">
       <c r="D747">
         <v>3</v>
       </c>
@@ -16923,24 +16727,8 @@
         <f t="array" ref="E747">MEDIAN(IF(D747=D$2:D$742,E$2:E$742))</f>
         <v>61</v>
       </c>
-      <c r="F747" cm="1">
-        <f t="array" ref="F747">QUARTILE(IF(D747=D$2:D$742,E$2:E$742),1)</f>
-        <v>46.5</v>
-      </c>
-      <c r="G747" cm="1">
-        <f t="array" ref="G747">QUARTILE(IF(D747=D$2:D$742,E$2:E$742),3)</f>
-        <v>88.5</v>
-      </c>
-      <c r="H747" cm="1">
-        <f t="array" ref="H747">AVERAGE(IF(D747=D$2:D$742,E$2:E$742))</f>
-        <v>101.33333333333333</v>
-      </c>
-      <c r="I747">
-        <f t="shared" si="24"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="748" spans="1:11">
+    </row>
+    <row r="748" spans="1:5">
       <c r="D748">
         <v>4</v>
       </c>
@@ -16948,28 +16736,8 @@
         <f t="array" ref="E748">MEDIAN(IF(D748=D$2:D$742,E$2:E$742))</f>
         <v>62</v>
       </c>
-      <c r="F748" cm="1">
-        <f t="array" ref="F748">QUARTILE(IF(D748=D$2:D$742,E$2:E$742),1)</f>
-        <v>50.5</v>
-      </c>
-      <c r="G748" cm="1">
-        <f t="array" ref="G748">QUARTILE(IF(D748=D$2:D$742,E$2:E$742),3)</f>
-        <v>79.5</v>
-      </c>
-      <c r="H748" cm="1">
-        <f t="array" ref="H748">AVERAGE(IF(D748=D$2:D$742,E$2:E$742))</f>
-        <v>78.303030303030297</v>
-      </c>
-      <c r="I748">
-        <f t="shared" si="24"/>
-        <v>66</v>
-      </c>
-      <c r="K748">
-        <f>65/77</f>
-        <v>0.8441558441558441</v>
-      </c>
-    </row>
-    <row r="749" spans="1:11">
+    </row>
+    <row r="749" spans="1:5">
       <c r="D749">
         <v>5</v>
       </c>
@@ -16977,24 +16745,8 @@
         <f t="array" ref="E749">MEDIAN(IF(D749=D$2:D$742,E$2:E$742))</f>
         <v>68</v>
       </c>
-      <c r="F749" cm="1">
-        <f t="array" ref="F749">QUARTILE(IF(D749=D$2:D$742,E$2:E$742),1)</f>
-        <v>52</v>
-      </c>
-      <c r="G749" cm="1">
-        <f t="array" ref="G749">QUARTILE(IF(D749=D$2:D$742,E$2:E$742),3)</f>
-        <v>94</v>
-      </c>
-      <c r="H749" cm="1">
-        <f t="array" ref="H749">AVERAGE(IF(D749=D$2:D$742,E$2:E$742))</f>
-        <v>78.58461538461539</v>
-      </c>
-      <c r="I749">
-        <f t="shared" si="24"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="750" spans="1:11">
+    </row>
+    <row r="750" spans="1:5">
       <c r="D750">
         <v>6</v>
       </c>
@@ -17002,24 +16754,8 @@
         <f t="array" ref="E750">MEDIAN(IF(D750=D$2:D$742,E$2:E$742))</f>
         <v>66</v>
       </c>
-      <c r="F750" cm="1">
-        <f t="array" ref="F750">QUARTILE(IF(D750=D$2:D$742,E$2:E$742),1)</f>
-        <v>56</v>
-      </c>
-      <c r="G750" cm="1">
-        <f t="array" ref="G750">QUARTILE(IF(D750=D$2:D$742,E$2:E$742),3)</f>
-        <v>84</v>
-      </c>
-      <c r="H750" cm="1">
-        <f t="array" ref="H750">AVERAGE(IF(D750=D$2:D$742,E$2:E$742))</f>
-        <v>73.969230769230762</v>
-      </c>
-      <c r="I750">
-        <f t="shared" si="24"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="751" spans="1:11">
+    </row>
+    <row r="751" spans="1:5">
       <c r="D751">
         <v>7</v>
       </c>
@@ -17027,24 +16763,8 @@
         <f t="array" ref="E751">MEDIAN(IF(D751=D$2:D$742,E$2:E$742))</f>
         <v>68</v>
       </c>
-      <c r="F751" cm="1">
-        <f t="array" ref="F751">QUARTILE(IF(D751=D$2:D$742,E$2:E$742),1)</f>
-        <v>58</v>
-      </c>
-      <c r="G751" cm="1">
-        <f t="array" ref="G751">QUARTILE(IF(D751=D$2:D$742,E$2:E$742),3)</f>
-        <v>78</v>
-      </c>
-      <c r="H751" cm="1">
-        <f t="array" ref="H751">AVERAGE(IF(D751=D$2:D$742,E$2:E$742))</f>
-        <v>69.446153846153848</v>
-      </c>
-      <c r="I751">
-        <f t="shared" si="24"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="752" spans="1:11">
+    </row>
+    <row r="752" spans="1:5">
       <c r="D752">
         <v>8</v>
       </c>
@@ -17052,24 +16772,8 @@
         <f t="array" ref="E752">MEDIAN(IF(D752=D$2:D$742,E$2:E$742))</f>
         <v>74</v>
       </c>
-      <c r="F752" cm="1">
-        <f t="array" ref="F752">QUARTILE(IF(D752=D$2:D$742,E$2:E$742),1)</f>
-        <v>62</v>
-      </c>
-      <c r="G752" cm="1">
-        <f t="array" ref="G752">QUARTILE(IF(D752=D$2:D$742,E$2:E$742),3)</f>
-        <v>96</v>
-      </c>
-      <c r="H752" cm="1">
-        <f t="array" ref="H752">AVERAGE(IF(D752=D$2:D$742,E$2:E$742))</f>
-        <v>79.630769230769232</v>
-      </c>
-      <c r="I752">
-        <f t="shared" si="24"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="753" spans="4:9">
+    </row>
+    <row r="753" spans="4:5">
       <c r="D753">
         <v>9</v>
       </c>
@@ -17077,46 +16781,14 @@
         <f t="array" ref="E753">MEDIAN(IF(D753=D$2:D$742,E$2:E$742))</f>
         <v>72</v>
       </c>
-      <c r="F753" cm="1">
-        <f t="array" ref="F753">QUARTILE(IF(D753=D$2:D$742,E$2:E$742),1)</f>
-        <v>56</v>
-      </c>
-      <c r="G753" cm="1">
-        <f t="array" ref="G753">QUARTILE(IF(D753=D$2:D$742,E$2:E$742),3)</f>
-        <v>94</v>
-      </c>
-      <c r="H753" cm="1">
-        <f t="array" ref="H753">AVERAGE(IF(D753=D$2:D$742,E$2:E$742))</f>
-        <v>85.169230769230765</v>
-      </c>
-      <c r="I753">
-        <f t="shared" si="24"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="754" spans="4:9">
+    </row>
+    <row r="754" spans="4:5">
       <c r="D754">
         <v>10</v>
       </c>
       <c r="E754" cm="1">
         <f t="array" ref="E754">MEDIAN(IF(D754=D$2:D$742,E$2:E$742))</f>
         <v>74</v>
-      </c>
-      <c r="F754" cm="1">
-        <f t="array" ref="F754">QUARTILE(IF(D754=D$2:D$742,E$2:E$742),1)</f>
-        <v>64</v>
-      </c>
-      <c r="G754" cm="1">
-        <f t="array" ref="G754">QUARTILE(IF(D754=D$2:D$742,E$2:E$742),3)</f>
-        <v>86.5</v>
-      </c>
-      <c r="H754" cm="1">
-        <f t="array" ref="H754">AVERAGE(IF(D754=D$2:D$742,E$2:E$742))</f>
-        <v>82.59375</v>
-      </c>
-      <c r="I754">
-        <f t="shared" si="24"/>
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -17127,10 +16799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7A83A4-F94B-2F47-ADBE-128D24069930}">
-  <dimension ref="A1:I990"/>
+  <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView topLeftCell="A953" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G981" sqref="G981:G990"/>
+    <sheetView tabSelected="1" topLeftCell="A961" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F981" sqref="F981:I990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -30364,7 +30036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:5">
       <c r="C977">
         <v>2590</v>
       </c>
@@ -30377,7 +30049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:5">
       <c r="C978">
         <v>2622</v>
       </c>
@@ -30386,7 +30058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="981" spans="1:9">
+    <row r="981" spans="1:5">
       <c r="A981" t="s">
         <v>5</v>
       </c>
@@ -30397,24 +30069,8 @@
         <f t="array" ref="E981">MEDIAN(IF(D981=D$2:D$978,E$2:E$978))</f>
         <v>54</v>
       </c>
-      <c r="F981" cm="1">
-        <f t="array" ref="F981">QUARTILE(IF(D981=D$2:D$978,E$2:E$978),1)</f>
-        <v>46</v>
-      </c>
-      <c r="G981" cm="1">
-        <f t="array" ref="G981">QUARTILE(IF(D981=D$2:D$978,E$2:E$978),3)</f>
-        <v>68</v>
-      </c>
-      <c r="H981" cm="1">
-        <f t="array" ref="H981">AVERAGE(IF(D981=D$2:D$979,E$2:E$979))</f>
-        <v>59.977528089887642</v>
-      </c>
-      <c r="I981">
-        <f>COUNTIF(D$2:D$978,D981)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="982" spans="1:9">
+    </row>
+    <row r="982" spans="1:5">
       <c r="D982">
         <v>2</v>
       </c>
@@ -30422,24 +30078,8 @@
         <f t="array" ref="E982">MEDIAN(IF(D982=D$2:D$978,E$2:E$978))</f>
         <v>56</v>
       </c>
-      <c r="F982" cm="1">
-        <f t="array" ref="F982">QUARTILE(IF(D982=D$2:D$978,E$2:E$978),1)</f>
-        <v>46</v>
-      </c>
-      <c r="G982" cm="1">
-        <f t="array" ref="G982">QUARTILE(IF(D982=D$2:D$978,E$2:E$978),3)</f>
-        <v>66</v>
-      </c>
-      <c r="H982" cm="1">
-        <f t="array" ref="H982">AVERAGE(IF(D982=D$2:D$979,E$2:E$979))</f>
-        <v>60.741573033707866</v>
-      </c>
-      <c r="I982">
-        <f t="shared" ref="I982:I990" si="32">COUNTIF(D$2:D$978,D982)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="983" spans="1:9">
+    </row>
+    <row r="983" spans="1:5">
       <c r="D983">
         <v>3</v>
       </c>
@@ -30447,24 +30087,8 @@
         <f t="array" ref="E983">MEDIAN(IF(D983=D$2:D$978,E$2:E$978))</f>
         <v>62</v>
       </c>
-      <c r="F983" cm="1">
-        <f t="array" ref="F983">QUARTILE(IF(D983=D$2:D$978,E$2:E$978),1)</f>
-        <v>52</v>
-      </c>
-      <c r="G983" cm="1">
-        <f t="array" ref="G983">QUARTILE(IF(D983=D$2:D$978,E$2:E$978),3)</f>
-        <v>74</v>
-      </c>
-      <c r="H983" cm="1">
-        <f t="array" ref="H983">AVERAGE(IF(D983=D$2:D$979,E$2:E$979))</f>
-        <v>67.797752808988761</v>
-      </c>
-      <c r="I983">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="984" spans="1:9">
+    </row>
+    <row r="984" spans="1:5">
       <c r="D984">
         <v>4</v>
       </c>
@@ -30472,24 +30096,8 @@
         <f t="array" ref="E984">MEDIAN(IF(D984=D$2:D$978,E$2:E$978))</f>
         <v>66</v>
       </c>
-      <c r="F984" cm="1">
-        <f t="array" ref="F984">QUARTILE(IF(D984=D$2:D$978,E$2:E$978),1)</f>
-        <v>52</v>
-      </c>
-      <c r="G984" cm="1">
-        <f t="array" ref="G984">QUARTILE(IF(D984=D$2:D$978,E$2:E$978),3)</f>
-        <v>84</v>
-      </c>
-      <c r="H984" cm="1">
-        <f t="array" ref="H984">AVERAGE(IF(D984=D$2:D$979,E$2:E$979))</f>
-        <v>72.898876404494388</v>
-      </c>
-      <c r="I984">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="985" spans="1:9">
+    </row>
+    <row r="985" spans="1:5">
       <c r="D985">
         <v>5</v>
       </c>
@@ -30497,24 +30105,8 @@
         <f t="array" ref="E985">MEDIAN(IF(D985=D$2:D$978,E$2:E$978))</f>
         <v>66</v>
       </c>
-      <c r="F985" cm="1">
-        <f t="array" ref="F985">QUARTILE(IF(D985=D$2:D$978,E$2:E$978),1)</f>
-        <v>52</v>
-      </c>
-      <c r="G985" cm="1">
-        <f t="array" ref="G985">QUARTILE(IF(D985=D$2:D$978,E$2:E$978),3)</f>
-        <v>82</v>
-      </c>
-      <c r="H985" cm="1">
-        <f t="array" ref="H985">AVERAGE(IF(D985=D$2:D$979,E$2:E$979))</f>
-        <v>74.359550561797747</v>
-      </c>
-      <c r="I985">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="986" spans="1:9">
+    </row>
+    <row r="986" spans="1:5">
       <c r="D986">
         <v>6</v>
       </c>
@@ -30522,24 +30114,8 @@
         <f t="array" ref="E986">MEDIAN(IF(D986=D$2:D$978,E$2:E$978))</f>
         <v>64</v>
       </c>
-      <c r="F986" cm="1">
-        <f t="array" ref="F986">QUARTILE(IF(D986=D$2:D$978,E$2:E$978),1)</f>
-        <v>54</v>
-      </c>
-      <c r="G986" cm="1">
-        <f t="array" ref="G986">QUARTILE(IF(D986=D$2:D$978,E$2:E$978),3)</f>
-        <v>82</v>
-      </c>
-      <c r="H986" cm="1">
-        <f t="array" ref="H986">AVERAGE(IF(D986=D$2:D$979,E$2:E$979))</f>
-        <v>70.629213483146074</v>
-      </c>
-      <c r="I986">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="987" spans="1:9">
+    </row>
+    <row r="987" spans="1:5">
       <c r="D987">
         <v>7</v>
       </c>
@@ -30547,24 +30123,8 @@
         <f t="array" ref="E987">MEDIAN(IF(D987=D$2:D$978,E$2:E$978))</f>
         <v>64</v>
       </c>
-      <c r="F987" cm="1">
-        <f t="array" ref="F987">QUARTILE(IF(D987=D$2:D$978,E$2:E$978),1)</f>
-        <v>56</v>
-      </c>
-      <c r="G987" cm="1">
-        <f t="array" ref="G987">QUARTILE(IF(D987=D$2:D$978,E$2:E$978),3)</f>
-        <v>82</v>
-      </c>
-      <c r="H987" cm="1">
-        <f t="array" ref="H987">AVERAGE(IF(D987=D$2:D$979,E$2:E$979))</f>
-        <v>79.438202247191015</v>
-      </c>
-      <c r="I987">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="988" spans="1:9">
+    </row>
+    <row r="988" spans="1:5">
       <c r="D988">
         <v>8</v>
       </c>
@@ -30572,24 +30132,8 @@
         <f t="array" ref="E988">MEDIAN(IF(D988=D$2:D$978,E$2:E$978))</f>
         <v>66</v>
       </c>
-      <c r="F988" cm="1">
-        <f t="array" ref="F988">QUARTILE(IF(D988=D$2:D$978,E$2:E$978),1)</f>
-        <v>52</v>
-      </c>
-      <c r="G988" cm="1">
-        <f t="array" ref="G988">QUARTILE(IF(D988=D$2:D$978,E$2:E$978),3)</f>
-        <v>96</v>
-      </c>
-      <c r="H988" cm="1">
-        <f t="array" ref="H988">AVERAGE(IF(D988=D$2:D$979,E$2:E$979))</f>
-        <v>79.19101123595506</v>
-      </c>
-      <c r="I988">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="989" spans="1:9">
+    </row>
+    <row r="989" spans="1:5">
       <c r="D989">
         <v>9</v>
       </c>
@@ -30597,46 +30141,14 @@
         <f t="array" ref="E989">MEDIAN(IF(D989=D$2:D$978,E$2:E$978))</f>
         <v>66</v>
       </c>
-      <c r="F989" cm="1">
-        <f t="array" ref="F989">QUARTILE(IF(D989=D$2:D$978,E$2:E$978),1)</f>
-        <v>52</v>
-      </c>
-      <c r="G989" cm="1">
-        <f t="array" ref="G989">QUARTILE(IF(D989=D$2:D$978,E$2:E$978),3)</f>
-        <v>80</v>
-      </c>
-      <c r="H989" cm="1">
-        <f t="array" ref="H989">AVERAGE(IF(D989=D$2:D$979,E$2:E$979))</f>
-        <v>73.640449438202253</v>
-      </c>
-      <c r="I989">
-        <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="990" spans="1:9">
+    </row>
+    <row r="990" spans="1:5">
       <c r="D990">
         <v>10</v>
       </c>
       <c r="E990" cm="1">
         <f t="array" ref="E990">MEDIAN(IF(D990=D$2:D$978,E$2:E$978))</f>
         <v>68</v>
-      </c>
-      <c r="F990" cm="1">
-        <f t="array" ref="F990">QUARTILE(IF(D990=D$2:D$978,E$2:E$978),1)</f>
-        <v>56</v>
-      </c>
-      <c r="G990" cm="1">
-        <f t="array" ref="G990">QUARTILE(IF(D990=D$2:D$978,E$2:E$978),3)</f>
-        <v>88</v>
-      </c>
-      <c r="H990" cm="1">
-        <f t="array" ref="H990">AVERAGE(IF(D990=D$2:D$979,E$2:E$979))</f>
-        <v>76.022988505747122</v>
-      </c>
-      <c r="I990">
-        <f t="shared" si="32"/>
-        <v>89</v>
       </c>
     </row>
   </sheetData>
